--- a/ارزيابي.xlsx
+++ b/ارزيابي.xlsx
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -961,7 +961,7 @@
     <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
         <f>SUM(C7:R7)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>32</v>
@@ -987,7 +987,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="11">
         <f>2*J6+K6</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="12">
